--- a/MICHAEL_NEILL.xlsx
+++ b/MICHAEL_NEILL.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t xml:space="preserve">Delivery</t>
   </si>
@@ -47,6 +47,9 @@
     <t xml:space="preserve">Breed</t>
   </si>
   <si>
+    <t xml:space="preserve">3bMonday</t>
+  </si>
+  <si>
     <t xml:space="preserve">2bMonday</t>
   </si>
   <si>
@@ -95,94 +98,100 @@
     <t xml:space="preserve">THS</t>
   </si>
   <si>
-    <t xml:space="preserve">Batch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wilson Sow Farm 87221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1133 MOORING RD, TARBORO, NC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SHP-North</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEILL, MICHAEL T.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">804-338-8874</t>
+    <t xml:space="preserve">Weekly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BNJ SOW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6401 WOODBRIDGE RD, STANTONSBURG, NC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP-East Commercial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEILL, MICHAEL T</t>
   </si>
   <si>
     <t xml:space="preserve">SPG240</t>
   </si>
   <si>
-    <t xml:space="preserve">0.23819444444444446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MWF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weekly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Farm 76391 Farrowing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">252-589-1826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SR 1317 659 BETHEL CHURCH RD, PLEASANT HILL, VA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPG120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Farm 8151 - Farrowing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5285 PHILLIPS RD, SCOTLAND NECK, VA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.46388888888888885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Farm 8511 - Farrowing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">252-589-1784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SR 1328 1328 HIGH BRIDGE RD, SEABOARD, VA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Farm 8533-Farrowing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SR 1117 740 BUCK BRANCH RD, AULANDER, VA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2:20pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Farm 85351-Farrowing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SR 1117 743 BUCK BRANCH RD, AULANDER, VA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2:28pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Farm 8152 - Farrowing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7458 DOUGLAS HILL FARM RD, SCOTLAND NECK, VA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.47083333333333338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Started 45/ml dose inseminations on 9/11/15</t>
+    <t xml:space="preserve">0.36319444444444443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASTALIA SOW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">491 INSCOE RD, CASTALIA, NC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.43888888888888888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COASTAL PLAIN SOW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4514 NC HWY 30, STOKES, NC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3347222222222222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G2 Sow Farm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3972222222222222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOLLOMAN SOW FARM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3354166666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sand Ridge Farrowing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">252-244-4502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1800 GRAY RD, VANCEBORO, NC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2638888888888889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VOSS FARMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2200 DEER VIEW TRAIL, SOUTH BOSTON, VA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP-East Multiplication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPG 240</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35416666666666669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHITE RIDGE FARM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">807 ROOKER DAIRY RD, NORLINA, NC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.42708333333333331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WILKERSON FARM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1055 WILKERSON TRIAL, ALTON, VA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.375</t>
   </si>
 </sst>
 </file>
@@ -519,34 +528,35 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
     <col min="1" max="1" width="8.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="10.71" hidden="0" customWidth="1"/>
     <col min="3" max="3" width="14.71" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="21.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="20.71" hidden="0" customWidth="1"/>
     <col min="5" max="5" width="17.71" hidden="0" customWidth="1"/>
     <col min="6" max="6" width="12.71" hidden="0" customWidth="1"/>
-    <col min="7" max="7" width="47.71" hidden="0" customWidth="1"/>
-    <col min="8" max="8" width="12.71" hidden="0" customWidth="1"/>
-    <col min="9" max="9" width="17.71" hidden="0" customWidth="1"/>
+    <col min="7" max="7" width="38.71" hidden="0" customWidth="1"/>
+    <col min="8" max="8" width="22.71" hidden="0" customWidth="1"/>
+    <col min="9" max="9" width="16.71" hidden="0" customWidth="1"/>
     <col min="10" max="10" width="16.71" hidden="0" customWidth="1"/>
-    <col min="11" max="11" width="6.71" hidden="0" customWidth="1"/>
+    <col min="11" max="11" width="7.71" hidden="0" customWidth="1"/>
     <col min="12" max="12" width="8.71" hidden="0" customWidth="1"/>
-    <col min="13" max="13" width="9.71" hidden="0" customWidth="1"/>
+    <col min="13" max="13" width="8.71" hidden="0" customWidth="1"/>
     <col min="14" max="14" width="9.71" hidden="0" customWidth="1"/>
-    <col min="15" max="15" width="11.71" hidden="0" customWidth="1"/>
+    <col min="15" max="15" width="9.71" hidden="0" customWidth="1"/>
     <col min="16" max="16" width="11.71" hidden="0" customWidth="1"/>
-    <col min="17" max="17" width="10.71" hidden="0" customWidth="1"/>
+    <col min="17" max="17" width="11.71" hidden="0" customWidth="1"/>
     <col min="18" max="18" width="10.71" hidden="0" customWidth="1"/>
-    <col min="19" max="19" width="8.71" hidden="0" customWidth="1"/>
+    <col min="19" max="19" width="10.71" hidden="0" customWidth="1"/>
     <col min="20" max="20" width="8.71" hidden="0" customWidth="1"/>
-    <col min="21" max="21" width="10.71" hidden="0" customWidth="1"/>
+    <col min="21" max="21" width="8.71" hidden="0" customWidth="1"/>
     <col min="22" max="22" width="10.71" hidden="0" customWidth="1"/>
-    <col min="23" max="23" width="5.71" hidden="0" customWidth="1"/>
-    <col min="24" max="24" width="11.71" hidden="0" customWidth="1"/>
-    <col min="25" max="25" width="19.71" hidden="0" customWidth="1"/>
-    <col min="26" max="26" width="43.71" hidden="0" customWidth="1"/>
+    <col min="23" max="23" width="10.71" hidden="0" customWidth="1"/>
+    <col min="24" max="24" width="5.71" hidden="0" customWidth="1"/>
+    <col min="25" max="25" width="11.71" hidden="0" customWidth="1"/>
+    <col min="26" max="26" width="19.71" hidden="0" customWidth="1"/>
+    <col min="27" max="27" width="8.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -628,424 +638,536 @@
       <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" t="n">
-        <v>7094</v>
+        <v>7093</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2" t="n">
-        <v>87221</v>
+        <v>62401</v>
       </c>
       <c r="F2"/>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" t="s">
         <v>32</v>
       </c>
+      <c r="J2"/>
       <c r="K2" t="s">
         <v>33</v>
       </c>
       <c r="L2"/>
       <c r="M2"/>
-      <c r="N2" t="n">
-        <v>25</v>
-      </c>
-      <c r="O2"/>
+      <c r="N2"/>
+      <c r="O2" t="n">
+        <v>40</v>
+      </c>
       <c r="P2"/>
       <c r="Q2"/>
-      <c r="R2" t="n">
-        <v>575</v>
-      </c>
-      <c r="S2"/>
+      <c r="R2"/>
+      <c r="S2" t="n">
+        <v>40</v>
+      </c>
       <c r="T2"/>
       <c r="U2"/>
-      <c r="V2" t="n">
-        <v>450</v>
-      </c>
+      <c r="V2"/>
       <c r="W2" t="n">
-        <v>1050</v>
+        <v>110</v>
       </c>
       <c r="X2" t="n">
-        <v>2.23880597014925</v>
-      </c>
-      <c r="Y2" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>2.06521739130435</v>
+      </c>
+      <c r="Z2" t="s">
         <v>34</v>
       </c>
-      <c r="Z2"/>
+      <c r="AA2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="n">
+        <v>7093</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
         <v>35</v>
       </c>
-      <c r="B3" t="n">
-        <v>7068</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="E3" t="n">
+        <v>72411</v>
+      </c>
+      <c r="F3"/>
+      <c r="G3" t="s">
         <v>36</v>
       </c>
-      <c r="D3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" t="n">
-        <v>76391</v>
-      </c>
-      <c r="F3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" t="s">
-        <v>39</v>
-      </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" t="s">
         <v>32</v>
       </c>
+      <c r="J3"/>
       <c r="K3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" t="n">
-        <v>165</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="L3"/>
       <c r="M3"/>
       <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3" t="n">
-        <v>65</v>
-      </c>
+      <c r="O3" t="n">
+        <v>70</v>
+      </c>
+      <c r="P3"/>
       <c r="Q3"/>
       <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3" t="n">
-        <v>35</v>
-      </c>
+      <c r="S3" t="n">
+        <v>25</v>
+      </c>
+      <c r="T3"/>
       <c r="U3"/>
       <c r="V3"/>
       <c r="W3" t="n">
-        <v>265</v>
+        <v>115</v>
       </c>
       <c r="X3" t="n">
-        <v>1.99248120300752</v>
-      </c>
-      <c r="Y3"/>
-      <c r="Z3"/>
+        <v>210</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>2.21052631578947</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>7068</v>
+        <v>7093</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E4" t="n">
-        <v>81511</v>
+        <v>68501</v>
       </c>
       <c r="F4"/>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" t="s">
         <v>32</v>
       </c>
+      <c r="J4"/>
       <c r="K4" t="s">
         <v>33</v>
       </c>
-      <c r="L4" t="n">
-        <v>155</v>
-      </c>
+      <c r="L4"/>
       <c r="M4"/>
       <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4" t="n">
-        <v>45</v>
-      </c>
+      <c r="O4" t="n">
+        <v>56</v>
+      </c>
+      <c r="P4"/>
       <c r="Q4"/>
       <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4" t="n">
-        <v>70</v>
-      </c>
+      <c r="S4" t="n">
+        <v>110</v>
+      </c>
+      <c r="T4"/>
       <c r="U4"/>
       <c r="V4"/>
       <c r="W4" t="n">
-        <v>270</v>
+        <v>110</v>
       </c>
       <c r="X4" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z4"/>
+        <v>276</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1.89041095890411</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B5" t="n">
-        <v>7068</v>
+        <v>7093</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E5" t="n">
-        <v>85111</v>
-      </c>
-      <c r="F5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
+        <v>88571</v>
+      </c>
+      <c r="F5"/>
+      <c r="G5"/>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" t="s">
         <v>32</v>
       </c>
+      <c r="J5"/>
       <c r="K5" t="s">
-        <v>40</v>
-      </c>
-      <c r="L5" t="n">
-        <v>145</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="L5"/>
       <c r="M5"/>
       <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5" t="n">
-        <v>90</v>
-      </c>
+      <c r="O5" t="n">
+        <v>45</v>
+      </c>
+      <c r="P5"/>
       <c r="Q5"/>
       <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5" t="n">
-        <v>125</v>
-      </c>
+      <c r="S5" t="n">
+        <v>35</v>
+      </c>
+      <c r="T5"/>
       <c r="U5"/>
       <c r="V5"/>
       <c r="W5" t="n">
-        <v>360</v>
+        <v>110</v>
       </c>
       <c r="X5" t="n">
-        <v>2.11764705882353</v>
-      </c>
-      <c r="Y5"/>
-      <c r="Z5"/>
+        <v>190</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>2.26190476190476</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B6" t="n">
         <v>7093</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E6" t="n">
-        <v>85331</v>
+        <v>5058</v>
       </c>
       <c r="F6"/>
-      <c r="G6" t="s">
-        <v>48</v>
-      </c>
+      <c r="G6"/>
       <c r="H6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" t="s">
         <v>32</v>
       </c>
+      <c r="J6"/>
       <c r="K6" t="s">
         <v>33</v>
       </c>
-      <c r="L6" t="n">
-        <v>160</v>
-      </c>
+      <c r="L6"/>
       <c r="M6"/>
       <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6" t="n">
-        <v>55</v>
-      </c>
+      <c r="O6" t="n">
+        <v>120</v>
+      </c>
+      <c r="P6"/>
       <c r="Q6"/>
       <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6" t="n">
-        <v>165</v>
-      </c>
+      <c r="S6" t="n">
+        <v>40</v>
+      </c>
+      <c r="T6"/>
       <c r="U6"/>
       <c r="V6"/>
       <c r="W6" t="n">
-        <v>380</v>
+        <v>140</v>
       </c>
       <c r="X6" t="n">
-        <v>2.23529411764706</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z6"/>
+        <v>300</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>2.22222222222222</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B7" t="n">
-        <v>7093</v>
+        <v>7094</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E7" t="n">
-        <v>85351</v>
-      </c>
-      <c r="F7"/>
+        <v>68541</v>
+      </c>
+      <c r="F7" t="s">
+        <v>46</v>
+      </c>
       <c r="G7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" t="s">
         <v>32</v>
       </c>
+      <c r="J7"/>
       <c r="K7" t="s">
         <v>33</v>
       </c>
-      <c r="L7" t="n">
-        <v>160</v>
-      </c>
-      <c r="M7"/>
+      <c r="L7"/>
+      <c r="M7" t="n">
+        <v>170</v>
+      </c>
       <c r="N7"/>
       <c r="O7"/>
-      <c r="P7" t="n">
-        <v>55</v>
-      </c>
-      <c r="Q7"/>
+      <c r="P7"/>
+      <c r="Q7" t="n">
+        <v>100</v>
+      </c>
       <c r="R7"/>
       <c r="S7"/>
-      <c r="T7" t="n">
-        <v>160</v>
-      </c>
-      <c r="U7"/>
+      <c r="T7"/>
+      <c r="U7" t="n">
+        <v>60</v>
+      </c>
       <c r="V7"/>
-      <c r="W7" t="n">
-        <v>375</v>
-      </c>
+      <c r="W7"/>
       <c r="X7" t="n">
-        <v>2.08333333333333</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z7"/>
+        <v>330</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>2.18543046357616</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B8" t="n">
-        <v>7093</v>
+        <v>7069</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E8" t="n">
-        <v>81521</v>
+        <v>82231</v>
       </c>
       <c r="F8"/>
       <c r="G8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H8" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="I8" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" t="s">
         <v>32</v>
       </c>
+      <c r="J8"/>
       <c r="K8" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="L8"/>
       <c r="M8"/>
       <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8" t="n">
-        <v>500</v>
-      </c>
+      <c r="O8" t="n">
+        <v>25</v>
+      </c>
+      <c r="P8"/>
       <c r="Q8"/>
       <c r="R8"/>
-      <c r="S8"/>
-      <c r="T8" t="n">
-        <v>520</v>
-      </c>
+      <c r="S8" t="n">
+        <v>20</v>
+      </c>
+      <c r="T8"/>
       <c r="U8"/>
       <c r="V8"/>
       <c r="W8" t="n">
-        <v>1020</v>
-      </c>
-      <c r="X8"/>
-      <c r="Y8" t="s">
         <v>55</v>
       </c>
+      <c r="X8" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>1.88679245283019</v>
+      </c>
       <c r="Z8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7069</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" t="n">
+        <v>88541</v>
+      </c>
+      <c r="F9"/>
+      <c r="G9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9"/>
+      <c r="K9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9" t="n">
+        <v>20</v>
+      </c>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9"/>
+      <c r="W9" t="n">
+        <v>60</v>
+      </c>
+      <c r="X9" t="n">
+        <v>80</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>1.95121951219512</v>
+      </c>
+      <c r="Z9" t="s">
         <v>56</v>
       </c>
+      <c r="AA9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="n">
+        <v>7069</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" t="n">
+        <v>88241</v>
+      </c>
+      <c r="F10"/>
+      <c r="G10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10"/>
+      <c r="K10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10" t="n">
+        <v>25</v>
+      </c>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10" t="n">
+        <v>10</v>
+      </c>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10" t="n">
+        <v>70</v>
+      </c>
+      <c r="W10"/>
+      <c r="X10" t="n">
+        <v>105</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>2.1875</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
